--- a/excel_with_subclasses/with_count/lake_with_count.xlsx
+++ b/excel_with_subclasses/with_count/lake_with_count.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="5">
